--- a/new_opp.xlsx
+++ b/new_opp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAB36C4-B439-4BCA-96F7-F3BF328B2303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01BA813-E47A-405E-86EF-3EC76CC24CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I16"/>
+      <selection activeCell="I15" sqref="I2:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
